--- a/Documentos/Demais Documentos do Projeto/HORARIOS_DE_EXEC_JOBS.xlsx
+++ b/Documentos/Demais Documentos do Projeto/HORARIOS_DE_EXEC_JOBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40776E77-DE59-4425-B57E-B479DF729F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAE9228-6503-460B-9BBA-04D81C6797CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7837DCF-0FCF-442C-A379-D3780ED374F5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="62">
   <si>
     <t>PIPELINE</t>
   </si>
@@ -123,9 +123,6 @@
     <t>ACIONA_DISCADOR_RECEPTIVO_DEPLOY</t>
   </si>
   <si>
-    <t>ACIONA_DISCADOR_RECEPTIVO_DEPLOY_LAST_INSERT</t>
-  </si>
-  <si>
     <t>ACIONA_CRM</t>
   </si>
   <si>
@@ -211,13 +208,28 @@
   </si>
   <si>
     <t>CLIENTES_EMAIL_DEPLOY</t>
+  </si>
+  <si>
+    <t>STAGING_ACIONA_DISCADOR_ATIVO_DEPLOY_LAST_INSERT</t>
+  </si>
+  <si>
+    <t>STAGING_ACIONA_DISCADOR_RECEPTIVO_ASPECT</t>
+  </si>
+  <si>
+    <t>STAGING_ACIONA_DISCADOR_RECEPTIVO_DEPLOY_LAST_INSERT</t>
+  </si>
+  <si>
+    <t>ACIONA_DISCADOR_RECEPTIVO_LAST_INSERT</t>
+  </si>
+  <si>
+    <t>ACIONA_DISCADOR_ATIVO_LAST_INSERT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +253,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +329,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -322,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,12 +357,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -355,9 +375,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -379,6 +396,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,11 +750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2626D0D-7A7B-4814-9BF1-5139DA766D06}">
-  <dimension ref="A1:BY36"/>
+  <dimension ref="A1:BY38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN26" sqref="AN26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,235 +799,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="15">
         <v>0.25</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="15">
         <v>0.25347222222222221</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="15">
         <v>0.25694444444444442</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="15">
         <v>0.26041666666666669</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="15">
         <v>0.2638888888888889</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="15">
         <v>0.2673611111111111</v>
       </c>
-      <c r="K1" s="18">
+      <c r="K1" s="15">
         <v>0.27083333333333331</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="15">
         <v>0.27430555555555558</v>
       </c>
-      <c r="M1" s="18">
+      <c r="M1" s="15">
         <v>0.27777777777777779</v>
       </c>
-      <c r="N1" s="18">
+      <c r="N1" s="15">
         <v>0.28125</v>
       </c>
-      <c r="O1" s="18">
+      <c r="O1" s="15">
         <v>0.28472222222222221</v>
       </c>
-      <c r="P1" s="18">
+      <c r="P1" s="15">
         <v>0.28819444444444442</v>
       </c>
-      <c r="Q1" s="17">
+      <c r="Q1" s="14">
         <v>0.29166666666666669</v>
       </c>
-      <c r="R1" s="17">
+      <c r="R1" s="14">
         <v>0.2951388888888889</v>
       </c>
-      <c r="S1" s="17">
+      <c r="S1" s="14">
         <v>0.2986111111111111</v>
       </c>
-      <c r="T1" s="17">
+      <c r="T1" s="14">
         <v>0.30208333333333331</v>
       </c>
-      <c r="U1" s="17">
+      <c r="U1" s="14">
         <v>0.30555555555555558</v>
       </c>
-      <c r="V1" s="17">
+      <c r="V1" s="14">
         <v>0.30902777777777779</v>
       </c>
-      <c r="W1" s="17">
+      <c r="W1" s="14">
         <v>0.3125</v>
       </c>
-      <c r="X1" s="17">
+      <c r="X1" s="14">
         <v>0.31597222222222221</v>
       </c>
-      <c r="Y1" s="17">
+      <c r="Y1" s="14">
         <v>0.31944444444444442</v>
       </c>
-      <c r="Z1" s="17">
+      <c r="Z1" s="14">
         <v>0.32291666666666669</v>
       </c>
-      <c r="AA1" s="17">
+      <c r="AA1" s="14">
         <v>0.3263888888888889</v>
       </c>
-      <c r="AB1" s="17">
+      <c r="AB1" s="14">
         <v>0.3298611111111111</v>
       </c>
-      <c r="AC1" s="16">
+      <c r="AC1" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AD1" s="16">
+      <c r="AD1" s="13">
         <v>0.33680555555555558</v>
       </c>
-      <c r="AE1" s="16">
+      <c r="AE1" s="13">
         <v>0.34027777777777779</v>
       </c>
-      <c r="AF1" s="16">
+      <c r="AF1" s="13">
         <v>0.34375</v>
       </c>
-      <c r="AG1" s="16">
+      <c r="AG1" s="13">
         <v>0.34722222222222221</v>
       </c>
-      <c r="AH1" s="16">
+      <c r="AH1" s="13">
         <v>0.35069444444444442</v>
       </c>
-      <c r="AI1" s="16">
+      <c r="AI1" s="13">
         <v>0.35416666666666669</v>
       </c>
-      <c r="AJ1" s="16">
+      <c r="AJ1" s="13">
         <v>0.3576388888888889</v>
       </c>
-      <c r="AK1" s="16">
+      <c r="AK1" s="13">
         <v>0.3611111111111111</v>
       </c>
-      <c r="AL1" s="16">
+      <c r="AL1" s="13">
         <v>0.36458333333333331</v>
       </c>
-      <c r="AM1" s="16">
+      <c r="AM1" s="13">
         <v>0.36805555555555558</v>
       </c>
-      <c r="AN1" s="16">
+      <c r="AN1" s="13">
         <v>0.37152777777777779</v>
       </c>
-      <c r="AO1" s="16">
+      <c r="AO1" s="13">
         <v>0.375</v>
       </c>
-      <c r="AP1" s="15">
+      <c r="AP1" s="12">
         <v>0.875</v>
       </c>
-      <c r="AQ1" s="15">
+      <c r="AQ1" s="12">
         <v>0.87847222222222221</v>
       </c>
-      <c r="AR1" s="15">
+      <c r="AR1" s="12">
         <v>0.88194444444444442</v>
       </c>
-      <c r="AS1" s="15">
+      <c r="AS1" s="12">
         <v>0.88541666666666663</v>
       </c>
-      <c r="AT1" s="15">
+      <c r="AT1" s="12">
         <v>0.88888888888888884</v>
       </c>
-      <c r="AU1" s="15">
+      <c r="AU1" s="12">
         <v>0.89236111111111116</v>
       </c>
-      <c r="AV1" s="15">
+      <c r="AV1" s="12">
         <v>0.89583333333333337</v>
       </c>
-      <c r="AW1" s="15">
+      <c r="AW1" s="12">
         <v>0.89930555555555558</v>
       </c>
-      <c r="AX1" s="15">
+      <c r="AX1" s="12">
         <v>0.90277777777777779</v>
       </c>
-      <c r="AY1" s="15">
+      <c r="AY1" s="12">
         <v>0.90625</v>
       </c>
-      <c r="AZ1" s="15">
+      <c r="AZ1" s="12">
         <v>0.90972222222222221</v>
       </c>
-      <c r="BA1" s="15">
+      <c r="BA1" s="12">
         <v>0.91319444444444442</v>
       </c>
-      <c r="BB1" s="14">
+      <c r="BB1" s="11">
         <v>0.91666666666666663</v>
       </c>
-      <c r="BC1" s="14">
+      <c r="BC1" s="11">
         <v>0.92013888888888884</v>
       </c>
-      <c r="BD1" s="14">
+      <c r="BD1" s="11">
         <v>0.92361111111111116</v>
       </c>
-      <c r="BE1" s="14">
+      <c r="BE1" s="11">
         <v>0.92708333333333337</v>
       </c>
-      <c r="BF1" s="14">
+      <c r="BF1" s="11">
         <v>0.93055555555555558</v>
       </c>
-      <c r="BG1" s="14">
+      <c r="BG1" s="11">
         <v>0.93402777777777779</v>
       </c>
-      <c r="BH1" s="14">
+      <c r="BH1" s="11">
         <v>0.9375</v>
       </c>
-      <c r="BI1" s="14">
+      <c r="BI1" s="11">
         <v>0.94097222222222221</v>
       </c>
-      <c r="BJ1" s="14">
+      <c r="BJ1" s="11">
         <v>0.94444444444444442</v>
       </c>
-      <c r="BK1" s="14">
+      <c r="BK1" s="11">
         <v>0.94791666666666663</v>
       </c>
-      <c r="BL1" s="14">
+      <c r="BL1" s="11">
         <v>0.95138888888888884</v>
       </c>
-      <c r="BM1" s="14">
+      <c r="BM1" s="11">
         <v>0.95486111111111116</v>
       </c>
-      <c r="BN1" s="13">
+      <c r="BN1" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="BO1" s="13">
+      <c r="BO1" s="10">
         <v>0.96180555555555558</v>
       </c>
-      <c r="BP1" s="13">
+      <c r="BP1" s="10">
         <v>0.97430555555555554</v>
       </c>
-      <c r="BQ1" s="13">
+      <c r="BQ1" s="10">
         <v>0.96875</v>
       </c>
-      <c r="BR1" s="13">
+      <c r="BR1" s="10">
         <v>0.97222222222222221</v>
       </c>
-      <c r="BS1" s="13">
+      <c r="BS1" s="10">
         <v>0.97569444444444442</v>
       </c>
-      <c r="BT1" s="13">
+      <c r="BT1" s="10">
         <v>0.97916666666666663</v>
       </c>
-      <c r="BU1" s="13">
+      <c r="BU1" s="10">
         <v>0.98263888888888884</v>
       </c>
-      <c r="BV1" s="13">
+      <c r="BV1" s="10">
         <v>0.98611111111111116</v>
       </c>
-      <c r="BW1" s="13">
+      <c r="BW1" s="10">
         <v>0.98958333333333337</v>
       </c>
-      <c r="BX1" s="13">
+      <c r="BX1" s="10">
         <v>0.99305555555555558</v>
       </c>
-      <c r="BY1" s="13">
+      <c r="BY1" s="10">
         <v>0.99652777777777779</v>
       </c>
     </row>
@@ -1003,29 +1038,29 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AD2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT2" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT2" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.3">
@@ -1035,29 +1070,29 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AD3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AD3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT3" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT3" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.3">
@@ -1067,29 +1102,29 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AD4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT4" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT4" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:77" x14ac:dyDescent="0.3">
@@ -1099,29 +1134,29 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AD5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG5" s="6" t="s">
+      <c r="AD5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT5" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT5" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.3">
@@ -1129,26 +1164,20 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA6" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AD6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AT6" s="7"/>
     </row>
     <row r="7" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1157,132 +1186,120 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BF7" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:77" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="11"/>
-      <c r="BE8" s="11"/>
-      <c r="BF8" s="11"/>
-      <c r="BG8" s="11"/>
-      <c r="BH8" s="11"/>
-      <c r="BI8" s="11"/>
-      <c r="BJ8" s="11"/>
-      <c r="BK8" s="11"/>
-      <c r="BL8" s="11"/>
-      <c r="BM8" s="11"/>
-      <c r="BN8" s="11"/>
-      <c r="BO8" s="11"/>
-      <c r="BP8" s="11"/>
-      <c r="BQ8" s="11"/>
-      <c r="BR8" s="11"/>
-      <c r="BS8" s="11"/>
-      <c r="BT8" s="11"/>
-      <c r="BU8" s="11"/>
-      <c r="BV8" s="11"/>
-      <c r="BW8" s="11"/>
-      <c r="BX8" s="11"/>
-      <c r="BY8" s="11"/>
-    </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU9" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="BF8" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:77" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="9"/>
+      <c r="BK9" s="9"/>
+      <c r="BL9" s="9"/>
+      <c r="BM9" s="9"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="9"/>
+      <c r="BQ9" s="9"/>
+      <c r="BR9" s="9"/>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9"/>
+      <c r="BU9" s="9"/>
+      <c r="BV9" s="9"/>
+      <c r="BW9" s="9"/>
+      <c r="BX9" s="9"/>
+      <c r="BY9" s="9"/>
     </row>
     <row r="10" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1291,35 +1308,35 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
+      <c r="C10" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB10" s="6" t="s">
+      <c r="Y10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU10" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:77" x14ac:dyDescent="0.3">
@@ -1327,28 +1344,37 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="AM11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX11" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:77" x14ac:dyDescent="0.3">
@@ -1356,976 +1382,1019 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC12" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:77" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="11"/>
-      <c r="AY13" s="11"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="11"/>
-      <c r="BB13" s="11"/>
-      <c r="BC13" s="11"/>
-      <c r="BD13" s="11"/>
-      <c r="BE13" s="11"/>
-      <c r="BF13" s="11"/>
-      <c r="BG13" s="11"/>
-      <c r="BH13" s="11"/>
-      <c r="BI13" s="11"/>
-      <c r="BJ13" s="11"/>
-      <c r="BK13" s="11"/>
-      <c r="BL13" s="11"/>
-      <c r="BM13" s="11"/>
-      <c r="BN13" s="11"/>
-      <c r="BO13" s="11"/>
-      <c r="BP13" s="11"/>
-      <c r="BQ13" s="11"/>
-      <c r="BR13" s="11"/>
-      <c r="BS13" s="11"/>
-      <c r="BT13" s="11"/>
-      <c r="BU13" s="11"/>
-      <c r="BV13" s="11"/>
-      <c r="BW13" s="11"/>
-      <c r="BX13" s="11"/>
-      <c r="BY13" s="11"/>
+      <c r="H12" s="21"/>
+      <c r="Y12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AU12" s="7"/>
+    </row>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="AA13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AX13" s="7"/>
     </row>
     <row r="14" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX14" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX15" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="BC14" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:77" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="9"/>
+      <c r="BJ15" s="9"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="9"/>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="9"/>
+      <c r="BQ15" s="9"/>
+      <c r="BR15" s="9"/>
+      <c r="BS15" s="9"/>
+      <c r="BT15" s="9"/>
+      <c r="BU15" s="9"/>
+      <c r="BV15" s="9"/>
+      <c r="BW15" s="9"/>
+      <c r="BX15" s="9"/>
+      <c r="BY15" s="9"/>
     </row>
     <row r="16" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AE16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH16" s="6" t="s">
+      <c r="AE16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX16" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="AK16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX16" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
+      <c r="C17" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AE17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH17" s="6" t="s">
+      <c r="AE17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX17" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="AK17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX17" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
+      <c r="C18" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AE18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH18" s="6" t="s">
+      <c r="AE18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX18" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="AK18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX18" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>35</v>
+      <c r="C19" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AE19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU19" s="6" t="s">
+      <c r="AE19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX19" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AS20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY20" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:77" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
-      <c r="AP21" s="11"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="11"/>
-      <c r="AU21" s="11"/>
-      <c r="AV21" s="11"/>
-      <c r="AW21" s="11"/>
-      <c r="AX21" s="11"/>
-      <c r="AY21" s="11"/>
-      <c r="AZ21" s="11"/>
-      <c r="BA21" s="11"/>
-      <c r="BB21" s="11"/>
-      <c r="BC21" s="11"/>
-      <c r="BD21" s="11"/>
-      <c r="BE21" s="11"/>
-      <c r="BF21" s="11"/>
-      <c r="BG21" s="11"/>
-      <c r="BH21" s="11"/>
-      <c r="BI21" s="11"/>
-      <c r="BJ21" s="11"/>
-      <c r="BK21" s="11"/>
-      <c r="BL21" s="11"/>
-      <c r="BM21" s="11"/>
-      <c r="BN21" s="11"/>
-      <c r="BO21" s="11"/>
-      <c r="BP21" s="11"/>
-      <c r="BQ21" s="11"/>
-      <c r="BR21" s="11"/>
-      <c r="BS21" s="11"/>
-      <c r="BT21" s="11"/>
-      <c r="BU21" s="11"/>
-      <c r="BV21" s="11"/>
-      <c r="BW21" s="11"/>
-      <c r="BX21" s="11"/>
-      <c r="BY21" s="11"/>
+    </row>
+    <row r="21" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU21" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="6" t="s">
+      <c r="AF22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT22" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT23" s="9" t="s">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="23" spans="1:77" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="9"/>
+      <c r="BI23" s="9"/>
+      <c r="BJ23" s="9"/>
+      <c r="BK23" s="9"/>
+      <c r="BL23" s="9"/>
+      <c r="BM23" s="9"/>
+      <c r="BN23" s="9"/>
+      <c r="BO23" s="9"/>
+      <c r="BP23" s="9"/>
+      <c r="BQ23" s="9"/>
+      <c r="BR23" s="9"/>
+      <c r="BS23" s="9"/>
+      <c r="BT23" s="9"/>
+      <c r="BU23" s="9"/>
+      <c r="BV23" s="9"/>
+      <c r="BW23" s="9"/>
+      <c r="BX23" s="9"/>
+      <c r="BY23" s="9"/>
     </row>
     <row r="24" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="6" t="s">
+      <c r="I24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT24" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT24" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="6" t="s">
+      <c r="I25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT25" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT25" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="6" t="s">
+      <c r="I26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT26" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT26" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" s="6" t="s">
+      <c r="I27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT27" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="U27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT27" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="V28" s="6" t="s">
+    </row>
+    <row r="29" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AB28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU28" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:77" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="11"/>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
-      <c r="AN29" s="11"/>
-      <c r="AO29" s="11"/>
-      <c r="AP29" s="11"/>
-      <c r="AQ29" s="11"/>
-      <c r="AR29" s="11"/>
-      <c r="AS29" s="11"/>
-      <c r="AT29" s="11"/>
-      <c r="AU29" s="11"/>
-      <c r="AV29" s="11"/>
-      <c r="AW29" s="11"/>
-      <c r="AX29" s="11"/>
-      <c r="AY29" s="11"/>
-      <c r="AZ29" s="11"/>
-      <c r="BA29" s="11"/>
-      <c r="BB29" s="11"/>
-      <c r="BC29" s="11"/>
-      <c r="BD29" s="11"/>
-      <c r="BE29" s="11"/>
-      <c r="BF29" s="11"/>
-      <c r="BG29" s="11"/>
-      <c r="BH29" s="11"/>
-      <c r="BI29" s="11"/>
-      <c r="BJ29" s="11"/>
-      <c r="BK29" s="11"/>
-      <c r="BL29" s="11"/>
-      <c r="BM29" s="11"/>
-      <c r="BN29" s="11"/>
-      <c r="BO29" s="11"/>
-      <c r="BP29" s="11"/>
-      <c r="BQ29" s="11"/>
-      <c r="BR29" s="11"/>
-      <c r="BS29" s="11"/>
-      <c r="BT29" s="11"/>
-      <c r="BU29" s="11"/>
-      <c r="BV29" s="11"/>
-      <c r="BW29" s="11"/>
-      <c r="BX29" s="11"/>
-      <c r="BY29" s="11"/>
     </row>
     <row r="30" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR30" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR31" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU30" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:77" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="9"/>
+      <c r="AQ31" s="9"/>
+      <c r="AR31" s="9"/>
+      <c r="AS31" s="9"/>
+      <c r="AT31" s="9"/>
+      <c r="AU31" s="9"/>
+      <c r="AV31" s="9"/>
+      <c r="AW31" s="9"/>
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="9"/>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="9"/>
+      <c r="BC31" s="9"/>
+      <c r="BD31" s="9"/>
+      <c r="BE31" s="9"/>
+      <c r="BF31" s="9"/>
+      <c r="BG31" s="9"/>
+      <c r="BH31" s="9"/>
+      <c r="BI31" s="9"/>
+      <c r="BJ31" s="9"/>
+      <c r="BK31" s="9"/>
+      <c r="BL31" s="9"/>
+      <c r="BM31" s="9"/>
+      <c r="BN31" s="9"/>
+      <c r="BO31" s="9"/>
+      <c r="BP31" s="9"/>
+      <c r="BQ31" s="9"/>
+      <c r="BR31" s="9"/>
+      <c r="BS31" s="9"/>
+      <c r="BT31" s="9"/>
+      <c r="BU31" s="9"/>
+      <c r="BV31" s="9"/>
+      <c r="BW31" s="9"/>
+      <c r="BX31" s="9"/>
+      <c r="BY31" s="9"/>
     </row>
     <row r="32" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR32" s="9" t="s">
-        <v>47</v>
+      <c r="G32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR32" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR33" s="9" t="s">
-        <v>47</v>
+      <c r="G33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR33" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR34" s="9" t="s">
-        <v>47</v>
+      <c r="G34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR34" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR35" s="9" t="s">
-        <v>47</v>
+      <c r="G35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR35" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR36" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR37" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="T36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS36" s="9" t="s">
-        <v>47</v>
+      <c r="C38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS38" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2357,52 +2426,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="2" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3">
@@ -2491,10 +2560,10 @@
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2511,10 +2580,10 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2531,10 +2600,10 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2551,10 +2620,10 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Z6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2571,10 +2640,10 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="10" t="s">
+      <c r="Z7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2591,7 +2660,7 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA8" s="8" t="s">
+      <c r="AA8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2599,7 +2668,7 @@
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z9" s="10" t="s">
+      <c r="Z9" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2607,7 +2676,7 @@
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" s="10" t="s">
+      <c r="Z10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2624,7 +2693,7 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2641,7 +2710,7 @@
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
